--- a/admin/src/main/resources/template/导入失败模板.xlsx
+++ b/admin/src/main/resources/template/导入失败模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCJX\项目\RedCross\admin\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF0B50-0BFA-47D6-98FC-9F5FEF937697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB49172-A04A-4CB6-843D-162A9C04DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>{.reason}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.userId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -449,28 +449,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/admin/src/main/resources/template/导入失败模板.xlsx
+++ b/admin/src/main/resources/template/导入失败模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCJX\项目\RedCross\admin\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB49172-A04A-4CB6-843D-162A9C04DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DEA8B-B102-4589-9EC0-C336A13833D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +113,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +148,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,60 +445,70 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.06640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.9296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.53125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.46484375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.06640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="46.33203125" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/admin/src/main/resources/template/导入失败模板.xlsx
+++ b/admin/src/main/resources/template/导入失败模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCJX\项目\RedCross\admin\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DEA8B-B102-4589-9EC0-C336A13833D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B7168-A1FD-4C33-93B5-21854448E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>{.userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.collegeName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -453,14 +461,15 @@
     <col min="1" max="1" width="30.265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.06640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.46484375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.9296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.06640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.53125" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.46484375" style="4" customWidth="1"/>
     <col min="7" max="7" width="22.06640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="46.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,22 +480,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -497,18 +509,21 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
